--- a/data_document/county_station_list.xlsx
+++ b/data_document/county_station_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/fzxzr_umsystem_edu/Documents/transfer_desktop/MU/2024-2025W_Modification_chapter1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/fzxzr_umsystem_edu/Documents/transfer_desktop/MU/2025spring_submit1/git_project1/data_document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{450E878D-3744-4758-817D-D57196B3592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFF5BA59-CB2D-499A-AD31-F625CD34B2A6}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{450E878D-3744-4758-817D-D57196B3592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEC8E2A-9B92-4C2A-82DE-33A7B2F4602B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GHCNh" sheetId="1" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>County</t>
   </si>
@@ -1841,9 +1841,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>city_population</t>
   </si>
   <si>
@@ -1871,9 +1868,6 @@
     <t>USW00024233</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Pierce</t>
   </si>
   <si>
@@ -2163,13 +2157,16 @@
   </si>
   <si>
     <t>Omak</t>
+  </si>
+  <si>
+    <t>city_size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,919 +2244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>city_population</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>737015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>228989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>219346</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110629</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96968</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60560</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43505</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37818</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35508</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34060</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25146</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24622</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19960</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18183</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14158</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10371</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9152</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8776</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4860</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DE6-4CE7-9F4B-198EF56A75F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="507799904"/>
-        <c:axId val="507801824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="507799904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507801824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="507801824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507799904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554DC472-D5F9-69EC-4DF4-638A0DEDF832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9502,28 +8586,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9554,1088 +8635,1007 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" cm="1" vm="2">
+        <f t="array" aca="1" ref="E2" ca="1">_FV(B2,"Population")</f>
+        <v>737015</v>
+      </c>
+      <c r="F2" cm="1" vm="3">
+        <f t="array" aca="1" ref="F2" ca="1">_FV(B2,"Latitude")</f>
+        <v>47.606209999999997</v>
+      </c>
+      <c r="G2" cm="1" vm="4">
+        <f t="array" aca="1" ref="G2" ca="1">_FV(B2,"Longitude")</f>
+        <v>-122.33207</v>
+      </c>
+      <c r="H2" t="e" cm="1" vm="5">
+        <f t="array" aca="1" ref="H2" ca="1">_FV(B2,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" cm="1" vm="6">
+        <f t="array" aca="1" ref="I2" ca="1">_FV(H2,"Population")</f>
+        <v>2269675</v>
+      </c>
+      <c r="J2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="J2" ca="1">_FV(H2,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" cm="1" vm="2">
-        <f t="array" aca="1" ref="F2" ca="1">_FV(B2,"Population")</f>
-        <v>737015</v>
-      </c>
-      <c r="G2" cm="1" vm="3">
-        <f t="array" aca="1" ref="G2" ca="1">_FV(B2,"Latitude")</f>
-        <v>47.606209999999997</v>
-      </c>
-      <c r="H2" cm="1" vm="4">
-        <f t="array" aca="1" ref="H2" ca="1">_FV(B2,"Longitude")</f>
-        <v>-122.33207</v>
-      </c>
-      <c r="I2" t="e" cm="1" vm="5">
-        <f t="array" aca="1" ref="I2" ca="1">_FV(B2,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" cm="1" vm="6">
-        <f t="array" aca="1" ref="J2" ca="1">_FV(I2,"Population")</f>
-        <v>2269675</v>
-      </c>
-      <c r="K2" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="K2" ca="1">_FV(I2,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" cm="1" vm="8">
-        <f t="array" aca="1" ref="F3" ca="1">_FV(B3,"Population")</f>
+        <v>15</v>
+      </c>
+      <c r="E3" cm="1" vm="8">
+        <f t="array" aca="1" ref="E3" ca="1">_FV(B3,"Population")</f>
         <v>219346</v>
       </c>
-      <c r="G3" cm="1" vm="9">
-        <f t="array" aca="1" ref="G3" ca="1">_FV(B3,"Latitude")</f>
+      <c r="F3" cm="1" vm="9">
+        <f t="array" aca="1" ref="F3" ca="1">_FV(B3,"Latitude")</f>
         <v>47.241388888888999</v>
       </c>
-      <c r="H3" cm="1" vm="10">
-        <f t="array" aca="1" ref="H3" ca="1">_FV(B3,"Longitude")</f>
+      <c r="G3" cm="1" vm="10">
+        <f t="array" aca="1" ref="G3" ca="1">_FV(B3,"Longitude")</f>
         <v>-122.45944444444</v>
       </c>
-      <c r="I3" t="e" cm="1" vm="11">
-        <f t="array" aca="1" ref="I3" ca="1">_FV(B3,"Admin Division 2 (County/district/other)",TRUE)</f>
+      <c r="H3" t="e" cm="1" vm="11">
+        <f t="array" aca="1" ref="H3" ca="1">_FV(B3,"Admin Division 2 (County/district/other)",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" cm="1" vm="12">
-        <f t="array" aca="1" ref="J3" ca="1">_FV(I3,"Population")</f>
+      <c r="I3" cm="1" vm="12">
+        <f t="array" aca="1" ref="I3" ca="1">_FV(H3,"Population")</f>
         <v>921130</v>
       </c>
-      <c r="K3" t="e" cm="1" vm="13">
-        <f t="array" aca="1" ref="K3" ca="1">_FV(I3,"Largest city",TRUE)</f>
+      <c r="J3" t="e" cm="1" vm="13">
+        <f t="array" aca="1" ref="J3" ca="1">_FV(H3,"Largest city",TRUE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
       <c r="B5" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" cm="1" vm="15">
+        <f t="array" aca="1" ref="E5" ca="1">_FV(B5,"Population")</f>
+        <v>110629</v>
+      </c>
+      <c r="F5" cm="1" vm="16">
+        <f t="array" aca="1" ref="F5" ca="1">_FV(B5,"Latitude")</f>
+        <v>47.963333333332997</v>
+      </c>
+      <c r="G5" cm="1" vm="17">
+        <f t="array" aca="1" ref="G5" ca="1">_FV(B5,"Longitude")</f>
+        <v>-122.20055555556</v>
+      </c>
+      <c r="H5" t="e" cm="1" vm="18">
+        <f t="array" aca="1" ref="H5" ca="1">_FV(B5,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" cm="1" vm="19">
+        <f t="array" aca="1" ref="I5" ca="1">_FV(H5,"Population")</f>
+        <v>827957</v>
+      </c>
+      <c r="J5" t="e" cm="1" vm="20">
+        <f t="array" aca="1" ref="J5" ca="1">_FV(H5,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" cm="1" vm="15">
-        <f t="array" aca="1" ref="F5" ca="1">_FV(B5,"Population")</f>
-        <v>110629</v>
-      </c>
-      <c r="G5" cm="1" vm="16">
-        <f t="array" aca="1" ref="G5" ca="1">_FV(B5,"Latitude")</f>
-        <v>47.963333333332997</v>
-      </c>
-      <c r="H5" cm="1" vm="17">
-        <f t="array" aca="1" ref="H5" ca="1">_FV(B5,"Longitude")</f>
-        <v>-122.20055555556</v>
-      </c>
-      <c r="I5" t="e" cm="1" vm="18">
-        <f t="array" aca="1" ref="I5" ca="1">_FV(B5,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" cm="1" vm="19">
-        <f t="array" aca="1" ref="J5" ca="1">_FV(I5,"Population")</f>
-        <v>827957</v>
-      </c>
-      <c r="K5" t="e" cm="1" vm="20">
-        <f t="array" aca="1" ref="K5" ca="1">_FV(I5,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>23</v>
       </c>
       <c r="B6" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" cm="1" vm="22">
+        <f t="array" aca="1" ref="E6" ca="1">_FV(B6,"Population")</f>
+        <v>228989</v>
+      </c>
+      <c r="F6" cm="1" vm="23">
+        <f t="array" aca="1" ref="F6" ca="1">_FV(B6,"Latitude")</f>
+        <v>47.6571944444444</v>
+      </c>
+      <c r="G6" cm="1" vm="24">
+        <f t="array" aca="1" ref="G6" ca="1">_FV(B6,"Longitude")</f>
+        <v>-117.4235</v>
+      </c>
+      <c r="H6" t="e" cm="1" vm="25">
+        <f t="array" aca="1" ref="H6" ca="1">_FV(B6,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" cm="1" vm="26">
+        <f t="array" aca="1" ref="I6" ca="1">_FV(H6,"Population")</f>
+        <v>539339</v>
+      </c>
+      <c r="J6" t="e" cm="1" vm="27">
+        <f t="array" aca="1" ref="J6" ca="1">_FV(H6,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" cm="1" vm="22">
-        <f t="array" aca="1" ref="F6" ca="1">_FV(B6,"Population")</f>
-        <v>228989</v>
-      </c>
-      <c r="G6" cm="1" vm="23">
-        <f t="array" aca="1" ref="G6" ca="1">_FV(B6,"Latitude")</f>
-        <v>47.6571944444444</v>
-      </c>
-      <c r="H6" cm="1" vm="24">
-        <f t="array" aca="1" ref="H6" ca="1">_FV(B6,"Longitude")</f>
-        <v>-117.4235</v>
-      </c>
-      <c r="I6" t="e" cm="1" vm="25">
-        <f t="array" aca="1" ref="I6" ca="1">_FV(B6,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" cm="1" vm="26">
-        <f t="array" aca="1" ref="J6" ca="1">_FV(I6,"Population")</f>
-        <v>539339</v>
-      </c>
-      <c r="K6" t="e" cm="1" vm="27">
-        <f t="array" aca="1" ref="K6" ca="1">_FV(I6,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>26</v>
       </c>
       <c r="B7" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" cm="1" vm="29">
+        <f t="array" aca="1" ref="E7" ca="1">_FV(B7,"Population")</f>
+        <v>190915</v>
+      </c>
+      <c r="F7" cm="1" vm="30">
+        <f t="array" aca="1" ref="F7" ca="1">_FV(B7,"Latitude")</f>
+        <v>45.631111111111103</v>
+      </c>
+      <c r="G7" cm="1" vm="31">
+        <f t="array" aca="1" ref="G7" ca="1">_FV(B7,"Longitude")</f>
+        <v>-122.67166666666699</v>
+      </c>
+      <c r="H7" t="e" cm="1" vm="32">
+        <f t="array" aca="1" ref="H7" ca="1">_FV(B7,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" cm="1" vm="33">
+        <f t="array" aca="1" ref="I7" ca="1">_FV(H7,"Population")</f>
+        <v>503311</v>
+      </c>
+      <c r="J7" t="e" cm="1" vm="34">
+        <f t="array" aca="1" ref="J7" ca="1">_FV(H7,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" cm="1" vm="29">
-        <f t="array" aca="1" ref="F7" ca="1">_FV(B7,"Population")</f>
-        <v>190915</v>
-      </c>
-      <c r="G7" cm="1" vm="30">
-        <f t="array" aca="1" ref="G7" ca="1">_FV(B7,"Latitude")</f>
-        <v>45.631111111111103</v>
-      </c>
-      <c r="H7" cm="1" vm="31">
-        <f t="array" aca="1" ref="H7" ca="1">_FV(B7,"Longitude")</f>
-        <v>-122.67166666666699</v>
-      </c>
-      <c r="I7" t="e" cm="1" vm="32">
-        <f t="array" aca="1" ref="I7" ca="1">_FV(B7,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" cm="1" vm="33">
-        <f t="array" aca="1" ref="J7" ca="1">_FV(I7,"Population")</f>
-        <v>503311</v>
-      </c>
-      <c r="K7" t="e" cm="1" vm="34">
-        <f t="array" aca="1" ref="K7" ca="1">_FV(I7,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>29</v>
       </c>
       <c r="B8" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" cm="1" vm="36">
+        <f t="array" aca="1" ref="E8" ca="1">_FV(B8,"Population")</f>
+        <v>55605</v>
+      </c>
+      <c r="F8" cm="1" vm="37">
+        <f t="array" aca="1" ref="F8" ca="1">_FV(B8,"Latitude")</f>
+        <v>47.042499999999997</v>
+      </c>
+      <c r="G8" cm="1" vm="38">
+        <f t="array" aca="1" ref="G8" ca="1">_FV(B8,"Longitude")</f>
+        <v>-122.89305555556</v>
+      </c>
+      <c r="H8" t="e" cm="1" vm="39">
+        <f t="array" aca="1" ref="H8" ca="1">_FV(B8,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" cm="1" vm="40">
+        <f t="array" aca="1" ref="I8" ca="1">_FV(H8,"Population")</f>
+        <v>294793</v>
+      </c>
+      <c r="J8" s="4" t="e" cm="1" vm="41">
+        <f t="array" aca="1" ref="J8" ca="1">_FV(H8,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" cm="1" vm="36">
-        <f t="array" aca="1" ref="F8" ca="1">_FV(B8,"Population")</f>
-        <v>55605</v>
-      </c>
-      <c r="G8" cm="1" vm="37">
-        <f t="array" aca="1" ref="G8" ca="1">_FV(B8,"Latitude")</f>
-        <v>47.042499999999997</v>
-      </c>
-      <c r="H8" cm="1" vm="38">
-        <f t="array" aca="1" ref="H8" ca="1">_FV(B8,"Longitude")</f>
-        <v>-122.89305555556</v>
-      </c>
-      <c r="I8" t="e" cm="1" vm="39">
-        <f t="array" aca="1" ref="I8" ca="1">_FV(B8,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" cm="1" vm="40">
-        <f t="array" aca="1" ref="J8" ca="1">_FV(I8,"Population")</f>
-        <v>294793</v>
-      </c>
-      <c r="K8" s="4" t="e" cm="1" vm="41">
-        <f t="array" aca="1" ref="K8" ca="1">_FV(I8,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>32</v>
       </c>
       <c r="B9" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" cm="1" vm="43">
+        <f t="array" aca="1" ref="E9" ca="1">_FV(B9,"Population")</f>
+        <v>43505</v>
+      </c>
+      <c r="F9" cm="1" vm="44">
+        <f t="array" aca="1" ref="F9" ca="1">_FV(B9,"Latitude")</f>
+        <v>47.565361111111102</v>
+      </c>
+      <c r="G9" cm="1" vm="45">
+        <f t="array" aca="1" ref="G9" ca="1">_FV(B9,"Longitude")</f>
+        <v>-122.624694444444</v>
+      </c>
+      <c r="H9" t="e" cm="1" vm="46">
+        <f t="array" aca="1" ref="H9" ca="1">_FV(B9,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" cm="1" vm="47">
+        <f t="array" aca="1" ref="I9" ca="1">_FV(H9,"Population")</f>
+        <v>275611</v>
+      </c>
+      <c r="J9" t="e" cm="1" vm="48">
+        <f t="array" aca="1" ref="J9" ca="1">_FV(H9,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" cm="1" vm="43">
-        <f t="array" aca="1" ref="F9" ca="1">_FV(B9,"Population")</f>
-        <v>43505</v>
-      </c>
-      <c r="G9" cm="1" vm="44">
-        <f t="array" aca="1" ref="G9" ca="1">_FV(B9,"Latitude")</f>
-        <v>47.565361111111102</v>
-      </c>
-      <c r="H9" cm="1" vm="45">
-        <f t="array" aca="1" ref="H9" ca="1">_FV(B9,"Longitude")</f>
-        <v>-122.624694444444</v>
-      </c>
-      <c r="I9" t="e" cm="1" vm="46">
-        <f t="array" aca="1" ref="I9" ca="1">_FV(B9,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" cm="1" vm="47">
-        <f t="array" aca="1" ref="J9" ca="1">_FV(I9,"Population")</f>
-        <v>275611</v>
-      </c>
-      <c r="K9" t="e" cm="1" vm="48">
-        <f t="array" aca="1" ref="K9" ca="1">_FV(I9,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>35</v>
       </c>
       <c r="B10" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" cm="1" vm="50">
+        <f t="array" aca="1" ref="E10" ca="1">_FV(B10,"Population")</f>
+        <v>96968</v>
+      </c>
+      <c r="F10" cm="1" vm="51">
+        <f t="array" aca="1" ref="F10" ca="1">_FV(B10,"Latitude")</f>
+        <v>46.601944444444001</v>
+      </c>
+      <c r="G10" cm="1" vm="52">
+        <f t="array" aca="1" ref="G10" ca="1">_FV(B10,"Longitude")</f>
+        <v>-120.50777777778001</v>
+      </c>
+      <c r="H10" t="e" cm="1" vm="53">
+        <f t="array" aca="1" ref="H10" ca="1">_FV(B10,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" cm="1" vm="54">
+        <f t="array" aca="1" ref="I10" ca="1">_FV(H10,"Population")</f>
+        <v>256728</v>
+      </c>
+      <c r="J10" t="e" cm="1" vm="55">
+        <f t="array" aca="1" ref="J10" ca="1">_FV(H10,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" cm="1" vm="50">
-        <f t="array" aca="1" ref="F10" ca="1">_FV(B10,"Population")</f>
-        <v>96968</v>
-      </c>
-      <c r="G10" cm="1" vm="51">
-        <f t="array" aca="1" ref="G10" ca="1">_FV(B10,"Latitude")</f>
-        <v>46.601944444444001</v>
-      </c>
-      <c r="H10" cm="1" vm="52">
-        <f t="array" aca="1" ref="H10" ca="1">_FV(B10,"Longitude")</f>
-        <v>-120.50777777778001</v>
-      </c>
-      <c r="I10" t="e" cm="1" vm="53">
-        <f t="array" aca="1" ref="I10" ca="1">_FV(B10,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" cm="1" vm="54">
-        <f t="array" aca="1" ref="J10" ca="1">_FV(I10,"Population")</f>
-        <v>256728</v>
-      </c>
-      <c r="K10" t="e" cm="1" vm="55">
-        <f t="array" aca="1" ref="K10" ca="1">_FV(I10,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>38</v>
       </c>
       <c r="B11" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" cm="1" vm="57">
+        <f t="array" aca="1" ref="E11" ca="1">_FV(B11,"Population")</f>
+        <v>91482</v>
+      </c>
+      <c r="F11" cm="1" vm="58">
+        <f t="array" aca="1" ref="F11" ca="1">_FV(B11,"Latitude")</f>
+        <v>48.754388888888897</v>
+      </c>
+      <c r="G11" cm="1" vm="59">
+        <f t="array" aca="1" ref="G11" ca="1">_FV(B11,"Longitude")</f>
+        <v>-122.478833333333</v>
+      </c>
+      <c r="H11" t="e" cm="1" vm="60">
+        <f t="array" aca="1" ref="H11" ca="1">_FV(B11,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" cm="1" vm="61">
+        <f t="array" aca="1" ref="I11" ca="1">_FV(H11,"Population")</f>
+        <v>226847</v>
+      </c>
+      <c r="J11" t="e" cm="1" vm="62">
+        <f t="array" aca="1" ref="J11" ca="1">_FV(H11,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" cm="1" vm="57">
-        <f t="array" aca="1" ref="F11" ca="1">_FV(B11,"Population")</f>
-        <v>91482</v>
-      </c>
-      <c r="G11" cm="1" vm="58">
-        <f t="array" aca="1" ref="G11" ca="1">_FV(B11,"Latitude")</f>
-        <v>48.754388888888897</v>
-      </c>
-      <c r="H11" cm="1" vm="59">
-        <f t="array" aca="1" ref="H11" ca="1">_FV(B11,"Longitude")</f>
-        <v>-122.478833333333</v>
-      </c>
-      <c r="I11" t="e" cm="1" vm="60">
-        <f t="array" aca="1" ref="I11" ca="1">_FV(B11,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" cm="1" vm="61">
-        <f t="array" aca="1" ref="J11" ca="1">_FV(I11,"Population")</f>
-        <v>226847</v>
-      </c>
-      <c r="K11" t="e" cm="1" vm="62">
-        <f t="array" aca="1" ref="K11" ca="1">_FV(I11,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>41</v>
       </c>
       <c r="B12" t="e" vm="63">
         <v>#VALUE!</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" cm="1" vm="64">
+        <f t="array" aca="1" ref="E12" ca="1">_FV(B12,"Population")</f>
+        <v>60560</v>
+      </c>
+      <c r="F12" cm="1" vm="65">
+        <f t="array" aca="1" ref="F12" ca="1">_FV(B12,"Latitude")</f>
+        <v>46.280444444444399</v>
+      </c>
+      <c r="G12" cm="1" vm="66">
+        <f t="array" aca="1" ref="G12" ca="1">_FV(B12,"Longitude")</f>
+        <v>-119.275194444444</v>
+      </c>
+      <c r="H12" t="e" cm="1" vm="67">
+        <f t="array" aca="1" ref="H12" ca="1">_FV(B12,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" cm="1" vm="68">
+        <f t="array" aca="1" ref="I12" ca="1">_FV(H12,"Population")</f>
+        <v>206873</v>
+      </c>
+      <c r="J12" s="2" t="e" cm="1" vm="69">
+        <f t="array" aca="1" ref="J12" ca="1">_FV(H12,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" cm="1" vm="64">
-        <f t="array" aca="1" ref="F12" ca="1">_FV(B12,"Population")</f>
-        <v>60560</v>
-      </c>
-      <c r="G12" cm="1" vm="65">
-        <f t="array" aca="1" ref="G12" ca="1">_FV(B12,"Latitude")</f>
-        <v>46.280444444444399</v>
-      </c>
-      <c r="H12" cm="1" vm="66">
-        <f t="array" aca="1" ref="H12" ca="1">_FV(B12,"Longitude")</f>
-        <v>-119.275194444444</v>
-      </c>
-      <c r="I12" t="e" cm="1" vm="67">
-        <f t="array" aca="1" ref="I12" ca="1">_FV(B12,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" cm="1" vm="68">
-        <f t="array" aca="1" ref="J12" ca="1">_FV(I12,"Population")</f>
-        <v>206873</v>
-      </c>
-      <c r="K12" s="2" t="e" cm="1" vm="69">
-        <f t="array" aca="1" ref="K12" ca="1">_FV(I12,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>44</v>
       </c>
       <c r="B13" t="e" vm="70">
         <v>#VALUE!</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" cm="1" vm="71">
+        <f t="array" aca="1" ref="E13" ca="1">_FV(B13,"Population")</f>
+        <v>9152</v>
+      </c>
+      <c r="F13" cm="1" vm="72">
+        <f t="array" aca="1" ref="F13" ca="1">_FV(B13,"Latitude")</f>
+        <v>48.472099999999998</v>
+      </c>
+      <c r="G13" cm="1" vm="73">
+        <f t="array" aca="1" ref="G13" ca="1">_FV(B13,"Longitude")</f>
+        <v>-122.328</v>
+      </c>
+      <c r="H13" t="e" cm="1" vm="74">
+        <f t="array" aca="1" ref="H13" ca="1">_FV(B13,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" cm="1" vm="75">
+        <f t="array" aca="1" ref="I13" ca="1">_FV(H13,"Population")</f>
+        <v>129523</v>
+      </c>
+      <c r="J13" s="4" t="e" cm="1" vm="76">
+        <f t="array" aca="1" ref="J13" ca="1">_FV(H13,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" cm="1" vm="71">
-        <f t="array" aca="1" ref="F13" ca="1">_FV(B13,"Population")</f>
-        <v>9152</v>
-      </c>
-      <c r="G13" cm="1" vm="72">
-        <f t="array" aca="1" ref="G13" ca="1">_FV(B13,"Latitude")</f>
-        <v>48.472099999999998</v>
-      </c>
-      <c r="H13" cm="1" vm="73">
-        <f t="array" aca="1" ref="H13" ca="1">_FV(B13,"Longitude")</f>
-        <v>-122.328</v>
-      </c>
-      <c r="I13" t="e" cm="1" vm="74">
-        <f t="array" aca="1" ref="I13" ca="1">_FV(B13,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" cm="1" vm="75">
-        <f t="array" aca="1" ref="J13" ca="1">_FV(I13,"Population")</f>
-        <v>129523</v>
-      </c>
-      <c r="K13" s="4" t="e" cm="1" vm="76">
-        <f t="array" aca="1" ref="K13" ca="1">_FV(I13,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>47</v>
       </c>
       <c r="B14" t="e" vm="77">
         <v>#VALUE!</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" cm="1" vm="78">
+        <f t="array" aca="1" ref="E14" ca="1">_FV(B14,"Population")</f>
+        <v>37818</v>
+      </c>
+      <c r="F14" cm="1" vm="79">
+        <f t="array" aca="1" ref="F14" ca="1">_FV(B14,"Latitude")</f>
+        <v>46.14</v>
+      </c>
+      <c r="G14" cm="1" vm="80">
+        <f t="array" aca="1" ref="G14" ca="1">_FV(B14,"Longitude")</f>
+        <v>-122.9375</v>
+      </c>
+      <c r="H14" t="e" cm="1" vm="81">
+        <f t="array" aca="1" ref="H14" ca="1">_FV(B14,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" cm="1" vm="82">
+        <f t="array" aca="1" ref="I14" ca="1">_FV(H14,"Population")</f>
+        <v>110730</v>
+      </c>
+      <c r="J14" t="e" cm="1" vm="83">
+        <f t="array" aca="1" ref="J14" ca="1">_FV(H14,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" cm="1" vm="78">
-        <f t="array" aca="1" ref="F14" ca="1">_FV(B14,"Population")</f>
-        <v>37818</v>
-      </c>
-      <c r="G14" cm="1" vm="79">
-        <f t="array" aca="1" ref="G14" ca="1">_FV(B14,"Latitude")</f>
-        <v>46.14</v>
-      </c>
-      <c r="H14" cm="1" vm="80">
-        <f t="array" aca="1" ref="H14" ca="1">_FV(B14,"Longitude")</f>
-        <v>-122.9375</v>
-      </c>
-      <c r="I14" t="e" cm="1" vm="81">
-        <f t="array" aca="1" ref="I14" ca="1">_FV(B14,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" cm="1" vm="82">
-        <f t="array" aca="1" ref="J14" ca="1">_FV(I14,"Population")</f>
-        <v>110730</v>
-      </c>
-      <c r="K14" t="e" cm="1" vm="83">
-        <f t="array" aca="1" ref="K14" ca="1">_FV(I14,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>50</v>
       </c>
       <c r="B15" t="e" vm="84">
         <v>#VALUE!</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" cm="1" vm="85">
+        <f t="array" aca="1" ref="E15" ca="1">_FV(B15,"Population")</f>
+        <v>77108</v>
+      </c>
+      <c r="F15" cm="1" vm="86">
+        <f t="array" aca="1" ref="F15" ca="1">_FV(B15,"Latitude")</f>
+        <v>46.238611111110998</v>
+      </c>
+      <c r="G15" cm="1" vm="87">
+        <f t="array" aca="1" ref="G15" ca="1">_FV(B15,"Longitude")</f>
+        <v>-119.10861111110999</v>
+      </c>
+      <c r="H15" t="e" cm="1" vm="88">
+        <f t="array" aca="1" ref="H15" ca="1">_FV(B15,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" cm="1" vm="89">
+        <f t="array" aca="1" ref="I15" ca="1">_FV(H15,"Population")</f>
+        <v>96749</v>
+      </c>
+      <c r="J15" t="e" cm="1" vm="90">
+        <f t="array" aca="1" ref="J15" ca="1">_FV(H15,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" cm="1" vm="85">
-        <f t="array" aca="1" ref="F15" ca="1">_FV(B15,"Population")</f>
-        <v>77108</v>
-      </c>
-      <c r="G15" cm="1" vm="86">
-        <f t="array" aca="1" ref="G15" ca="1">_FV(B15,"Latitude")</f>
-        <v>46.238611111110998</v>
-      </c>
-      <c r="H15" cm="1" vm="87">
-        <f t="array" aca="1" ref="H15" ca="1">_FV(B15,"Longitude")</f>
-        <v>-119.10861111110999</v>
-      </c>
-      <c r="I15" t="e" cm="1" vm="88">
-        <f t="array" aca="1" ref="I15" ca="1">_FV(B15,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" cm="1" vm="89">
-        <f t="array" aca="1" ref="J15" ca="1">_FV(I15,"Population")</f>
-        <v>96749</v>
-      </c>
-      <c r="K15" t="e" cm="1" vm="90">
-        <f t="array" aca="1" ref="K15" ca="1">_FV(I15,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>53</v>
       </c>
       <c r="B16" t="e" vm="91">
         <v>#VALUE!</v>
       </c>
       <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" cm="1" vm="92">
+        <f t="array" aca="1" ref="E16" ca="1">_FV(B16,"Population")</f>
+        <v>25146</v>
+      </c>
+      <c r="F16" cm="1" vm="93">
+        <f t="array" aca="1" ref="F16" ca="1">_FV(B16,"Latitude")</f>
+        <v>47.121099999999998</v>
+      </c>
+      <c r="G16" cm="1" vm="94">
+        <f t="array" aca="1" ref="G16" ca="1">_FV(B16,"Longitude")</f>
+        <v>-119.288</v>
+      </c>
+      <c r="H16" t="e" cm="1" vm="95">
+        <f t="array" aca="1" ref="H16" ca="1">_FV(B16,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" cm="1" vm="96">
+        <f t="array" aca="1" ref="I16" ca="1">_FV(H16,"Population")</f>
+        <v>99123</v>
+      </c>
+      <c r="J16" s="3" t="e" cm="1" vm="91">
+        <f t="array" aca="1" ref="J16" ca="1">_FV(H16,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" cm="1" vm="92">
-        <f t="array" aca="1" ref="F16" ca="1">_FV(B16,"Population")</f>
-        <v>25146</v>
-      </c>
-      <c r="G16" cm="1" vm="93">
-        <f t="array" aca="1" ref="G16" ca="1">_FV(B16,"Latitude")</f>
-        <v>47.121099999999998</v>
-      </c>
-      <c r="H16" cm="1" vm="94">
-        <f t="array" aca="1" ref="H16" ca="1">_FV(B16,"Longitude")</f>
-        <v>-119.288</v>
-      </c>
-      <c r="I16" t="e" cm="1" vm="95">
-        <f t="array" aca="1" ref="I16" ca="1">_FV(B16,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" cm="1" vm="96">
-        <f t="array" aca="1" ref="J16" ca="1">_FV(I16,"Population")</f>
-        <v>99123</v>
-      </c>
-      <c r="K16" s="3" t="e" cm="1" vm="91">
-        <f t="array" aca="1" ref="K16" ca="1">_FV(I16,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>56</v>
       </c>
       <c r="B17" t="e" vm="97">
         <v>#VALUE!</v>
       </c>
       <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" cm="1" vm="98">
+        <f t="array" aca="1" ref="E17" ca="1">_FV(B17,"Population")</f>
+        <v>24622</v>
+      </c>
+      <c r="F17" cm="1" vm="99">
+        <f t="array" aca="1" ref="F17" ca="1">_FV(B17,"Latitude")</f>
+        <v>48.295000000000002</v>
+      </c>
+      <c r="G17" cm="1" vm="100">
+        <f t="array" aca="1" ref="G17" ca="1">_FV(B17,"Longitude")</f>
+        <v>-122.65861111111001</v>
+      </c>
+      <c r="H17" t="e" cm="1" vm="101">
+        <f t="array" aca="1" ref="H17" ca="1">_FV(B17,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" cm="1" vm="102">
+        <f t="array" aca="1" ref="I17" ca="1">_FV(H17,"Population")</f>
+        <v>86857</v>
+      </c>
+      <c r="J17" t="e" cm="1" vm="103">
+        <f t="array" aca="1" ref="J17" ca="1">_FV(H17,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" cm="1" vm="98">
-        <f t="array" aca="1" ref="F17" ca="1">_FV(B17,"Population")</f>
-        <v>24622</v>
-      </c>
-      <c r="G17" cm="1" vm="99">
-        <f t="array" aca="1" ref="G17" ca="1">_FV(B17,"Latitude")</f>
-        <v>48.295000000000002</v>
-      </c>
-      <c r="H17" cm="1" vm="100">
-        <f t="array" aca="1" ref="H17" ca="1">_FV(B17,"Longitude")</f>
-        <v>-122.65861111111001</v>
-      </c>
-      <c r="I17" t="e" cm="1" vm="101">
-        <f t="array" aca="1" ref="I17" ca="1">_FV(B17,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" cm="1" vm="102">
-        <f t="array" aca="1" ref="J17" ca="1">_FV(I17,"Population")</f>
-        <v>86857</v>
-      </c>
-      <c r="K17" t="e" cm="1" vm="103">
-        <f t="array" aca="1" ref="K17" ca="1">_FV(I17,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>59</v>
       </c>
       <c r="B18" t="e" vm="104">
         <v>#VALUE!</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" cm="1" vm="105">
-        <f t="array" aca="1" ref="F18" ca="1">_FV(B18,"Population")</f>
+        <v>59</v>
+      </c>
+      <c r="E18" cm="1" vm="105">
+        <f t="array" aca="1" ref="E18" ca="1">_FV(B18,"Population")</f>
         <v>18183</v>
       </c>
-      <c r="G18" cm="1" vm="106">
-        <f t="array" aca="1" ref="G18" ca="1">_FV(B18,"Latitude")</f>
+      <c r="F18" cm="1" vm="106">
+        <f t="array" aca="1" ref="F18" ca="1">_FV(B18,"Latitude")</f>
         <v>46.720599999999997</v>
       </c>
-      <c r="H18" cm="1" vm="107">
-        <f t="array" aca="1" ref="H18" ca="1">_FV(B18,"Longitude")</f>
+      <c r="G18" cm="1" vm="107">
+        <f t="array" aca="1" ref="G18" ca="1">_FV(B18,"Longitude")</f>
         <v>-122.961</v>
       </c>
-      <c r="I18" t="e" cm="1" vm="108">
-        <f t="array" aca="1" ref="I18" ca="1">_FV(B18,"Admin Division 2 (County/district/other)",TRUE)</f>
+      <c r="H18" t="e" cm="1" vm="108">
+        <f t="array" aca="1" ref="H18" ca="1">_FV(B18,"Admin Division 2 (County/district/other)",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" cm="1" vm="109">
-        <f t="array" aca="1" ref="J18" ca="1">_FV(I18,"Population")</f>
+      <c r="I18" cm="1" vm="109">
+        <f t="array" aca="1" ref="I18" ca="1">_FV(H18,"Population")</f>
         <v>82149</v>
       </c>
-      <c r="K18" t="e" cm="1" vm="110">
-        <f t="array" aca="1" ref="K18" ca="1">_FV(I18,"Largest city",TRUE)</f>
+      <c r="J18" t="e" cm="1" vm="110">
+        <f t="array" aca="1" ref="J18" ca="1">_FV(H18,"Largest city",TRUE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="e" vm="111">
         <v>#VALUE!</v>
       </c>
       <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" cm="1" vm="112">
+        <f t="array" aca="1" ref="E19" ca="1">_FV(B19,"Population")</f>
+        <v>631</v>
+      </c>
+      <c r="F19" cm="1" vm="113">
+        <f t="array" aca="1" ref="F19" ca="1">_FV(B19,"Latitude")</f>
+        <v>46.439166666666999</v>
+      </c>
+      <c r="G19" cm="1" vm="114">
+        <f t="array" aca="1" ref="G19" ca="1">_FV(B19,"Longitude")</f>
+        <v>-122.84805555555999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" cm="1" vm="112">
-        <f t="array" aca="1" ref="F19" ca="1">_FV(B19,"Population")</f>
-        <v>631</v>
-      </c>
-      <c r="G19" cm="1" vm="113">
-        <f t="array" aca="1" ref="G19" ca="1">_FV(B19,"Latitude")</f>
-        <v>46.439166666666999</v>
-      </c>
-      <c r="H19" cm="1" vm="114">
-        <f t="array" aca="1" ref="H19" ca="1">_FV(B19,"Longitude")</f>
-        <v>-122.84805555555999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>64</v>
       </c>
       <c r="B20" t="e" vm="115">
         <v>#VALUE!</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" cm="1" vm="116">
+        <f t="array" aca="1" ref="E20" ca="1">_FV(B20,"Population")</f>
+        <v>19960</v>
+      </c>
+      <c r="F20" cm="1" vm="117">
+        <f t="array" aca="1" ref="F20" ca="1">_FV(B20,"Latitude")</f>
+        <v>48.113100000000003</v>
+      </c>
+      <c r="G20" cm="1" vm="118">
+        <f t="array" aca="1" ref="G20" ca="1">_FV(B20,"Longitude")</f>
+        <v>-123.441</v>
+      </c>
+      <c r="H20" t="e" cm="1" vm="119">
+        <f t="array" aca="1" ref="H20" ca="1">_FV(B20,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" cm="1" vm="120">
+        <f t="array" aca="1" ref="I20" ca="1">_FV(H20,"Population")</f>
+        <v>77155</v>
+      </c>
+      <c r="J20" s="3" t="e" cm="1" vm="121">
+        <f t="array" aca="1" ref="J20" ca="1">_FV(H20,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" cm="1" vm="116">
-        <f t="array" aca="1" ref="F20" ca="1">_FV(B20,"Population")</f>
-        <v>19960</v>
-      </c>
-      <c r="G20" cm="1" vm="117">
-        <f t="array" aca="1" ref="G20" ca="1">_FV(B20,"Latitude")</f>
-        <v>48.113100000000003</v>
-      </c>
-      <c r="H20" cm="1" vm="118">
-        <f t="array" aca="1" ref="H20" ca="1">_FV(B20,"Longitude")</f>
-        <v>-123.441</v>
-      </c>
-      <c r="I20" t="e" cm="1" vm="119">
-        <f t="array" aca="1" ref="I20" ca="1">_FV(B20,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" cm="1" vm="120">
-        <f t="array" aca="1" ref="J20" ca="1">_FV(I20,"Population")</f>
-        <v>77155</v>
-      </c>
-      <c r="K20" s="3" t="e" cm="1" vm="121">
-        <f t="array" aca="1" ref="K20" ca="1">_FV(I20,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>67</v>
       </c>
       <c r="B21" t="e" vm="122">
         <v>#VALUE!</v>
       </c>
       <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" cm="1" vm="123">
+        <f t="array" aca="1" ref="E21" ca="1">_FV(B21,"Population")</f>
+        <v>35508</v>
+      </c>
+      <c r="F21" cm="1" vm="124">
+        <f t="array" aca="1" ref="F21" ca="1">_FV(B21,"Latitude")</f>
+        <v>47.423333333332998</v>
+      </c>
+      <c r="G21" cm="1" vm="125">
+        <f t="array" aca="1" ref="G21" ca="1">_FV(B21,"Longitude")</f>
+        <v>-120.32527777778</v>
+      </c>
+      <c r="H21" t="e" vm="126">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" cm="1" vm="127">
+        <f t="array" aca="1" ref="I21" ca="1">_FV(H21,"Population")</f>
+        <v>79074</v>
+      </c>
+      <c r="J21" s="3" t="e" cm="1" vm="128">
+        <f t="array" aca="1" ref="J21" ca="1">_FV(H21,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" cm="1" vm="123">
-        <f t="array" aca="1" ref="F21" ca="1">_FV(B21,"Population")</f>
-        <v>35508</v>
-      </c>
-      <c r="G21" cm="1" vm="124">
-        <f t="array" aca="1" ref="G21" ca="1">_FV(B21,"Latitude")</f>
-        <v>47.423333333332998</v>
-      </c>
-      <c r="H21" cm="1" vm="125">
-        <f t="array" aca="1" ref="H21" ca="1">_FV(B21,"Longitude")</f>
-        <v>-120.32527777778</v>
-      </c>
-      <c r="I21" t="e" vm="126">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" cm="1" vm="127">
-        <f t="array" aca="1" ref="J21" ca="1">_FV(I21,"Population")</f>
-        <v>79074</v>
-      </c>
-      <c r="K21" s="3" t="e" cm="1" vm="128">
-        <f t="array" aca="1" ref="K21" ca="1">_FV(I21,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>70</v>
       </c>
       <c r="B22" t="e" vm="129">
         <v>#VALUE!</v>
       </c>
       <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" cm="1" vm="130">
+        <f t="array" aca="1" ref="E22" ca="1">_FV(B22,"Population")</f>
+        <v>8776</v>
+      </c>
+      <c r="F22" cm="1" vm="131">
+        <f t="array" aca="1" ref="F22" ca="1">_FV(B22,"Latitude")</f>
+        <v>46.980277777777999</v>
+      </c>
+      <c r="G22" cm="1" vm="132">
+        <f t="array" aca="1" ref="G22" ca="1">_FV(B22,"Longitude")</f>
+        <v>-123.88555555556</v>
+      </c>
+      <c r="H22" t="e" cm="1" vm="133">
+        <f t="array" aca="1" ref="H22" ca="1">_FV(B22,"Admin Division 2 (County/district/other)",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" cm="1" vm="134">
+        <f t="array" aca="1" ref="I22" ca="1">_FV(H22,"Population")</f>
+        <v>75636</v>
+      </c>
+      <c r="J22" s="2" t="e" cm="1" vm="135">
+        <f t="array" aca="1" ref="J22" ca="1">_FV(H22,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" cm="1" vm="130">
-        <f t="array" aca="1" ref="F22" ca="1">_FV(B22,"Population")</f>
-        <v>8776</v>
-      </c>
-      <c r="G22" cm="1" vm="131">
-        <f t="array" aca="1" ref="G22" ca="1">_FV(B22,"Latitude")</f>
-        <v>46.980277777777999</v>
-      </c>
-      <c r="H22" cm="1" vm="132">
-        <f t="array" aca="1" ref="H22" ca="1">_FV(B22,"Longitude")</f>
-        <v>-123.88555555556</v>
-      </c>
-      <c r="I22" t="e" cm="1" vm="133">
-        <f t="array" aca="1" ref="I22" ca="1">_FV(B22,"Admin Division 2 (County/district/other)",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" cm="1" vm="134">
-        <f t="array" aca="1" ref="J22" ca="1">_FV(I22,"Population")</f>
-        <v>75636</v>
-      </c>
-      <c r="K22" s="2" t="e" cm="1" vm="135">
-        <f t="array" aca="1" ref="K22" ca="1">_FV(I22,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>73</v>
       </c>
       <c r="B23" t="e" vm="136">
         <v>#VALUE!</v>
       </c>
       <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" cm="1" vm="137">
+        <f t="array" aca="1" ref="E23" ca="1">_FV(B23,"Population")</f>
+        <v>10371</v>
+      </c>
+      <c r="F23" cm="1" vm="138">
+        <f t="array" aca="1" ref="F23" ca="1">_FV(B23,"Latitude")</f>
+        <v>47.213611111111</v>
+      </c>
+      <c r="G23" cm="1" vm="139">
+        <f t="array" aca="1" ref="G23" ca="1">_FV(B23,"Longitude")</f>
+        <v>-123.10611111111</v>
+      </c>
+      <c r="H23" t="e" vm="140">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" cm="1" vm="141">
+        <f t="array" aca="1" ref="I23" ca="1">_FV(H23,"Population")</f>
+        <v>65726</v>
+      </c>
+      <c r="J23" s="3" t="e" cm="1" vm="142">
+        <f t="array" aca="1" ref="J23" ca="1">_FV(H23,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" cm="1" vm="137">
-        <f t="array" aca="1" ref="F23" ca="1">_FV(B23,"Population")</f>
-        <v>10371</v>
-      </c>
-      <c r="G23" cm="1" vm="138">
-        <f t="array" aca="1" ref="G23" ca="1">_FV(B23,"Latitude")</f>
-        <v>47.213611111111</v>
-      </c>
-      <c r="H23" cm="1" vm="139">
-        <f t="array" aca="1" ref="H23" ca="1">_FV(B23,"Longitude")</f>
-        <v>-123.10611111111</v>
-      </c>
-      <c r="I23" t="e" vm="140">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" cm="1" vm="141">
-        <f t="array" aca="1" ref="J23" ca="1">_FV(I23,"Population")</f>
-        <v>65726</v>
-      </c>
-      <c r="K23" s="3" t="e" cm="1" vm="142">
-        <f t="array" aca="1" ref="K23" ca="1">_FV(I23,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>76</v>
       </c>
       <c r="B24" t="e" vm="143">
         <v>#VALUE!</v>
       </c>
       <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" cm="1" vm="144">
+        <f t="array" aca="1" ref="E24" ca="1">_FV(B24,"Population")</f>
+        <v>34060</v>
+      </c>
+      <c r="F24" cm="1" vm="145">
+        <f t="array" aca="1" ref="F24" ca="1">_FV(B24,"Latitude")</f>
+        <v>46.064999999999998</v>
+      </c>
+      <c r="G24" cm="1" vm="146">
+        <f t="array" aca="1" ref="G24" ca="1">_FV(B24,"Longitude")</f>
+        <v>-118.33027777778</v>
+      </c>
+      <c r="H24" t="e" vm="147">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" cm="1" vm="148">
+        <f t="array" aca="1" ref="I24" ca="1">_FV(H24,"Population")</f>
+        <v>62584</v>
+      </c>
+      <c r="J24" s="3" t="e" cm="1" vm="149">
+        <f t="array" aca="1" ref="J24" ca="1">_FV(H24,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" cm="1" vm="144">
-        <f t="array" aca="1" ref="F24" ca="1">_FV(B24,"Population")</f>
-        <v>34060</v>
-      </c>
-      <c r="G24" cm="1" vm="145">
-        <f t="array" aca="1" ref="G24" ca="1">_FV(B24,"Latitude")</f>
-        <v>46.064999999999998</v>
-      </c>
-      <c r="H24" cm="1" vm="146">
-        <f t="array" aca="1" ref="H24" ca="1">_FV(B24,"Longitude")</f>
-        <v>-118.33027777778</v>
-      </c>
-      <c r="I24" t="e" vm="147">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" cm="1" vm="148">
-        <f t="array" aca="1" ref="J24" ca="1">_FV(I24,"Population")</f>
-        <v>62584</v>
-      </c>
-      <c r="K24" s="3" t="e" cm="1" vm="149">
-        <f t="array" aca="1" ref="K24" ca="1">_FV(I24,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>79</v>
       </c>
       <c r="B25" t="e" vm="150">
         <v>#VALUE!</v>
       </c>
       <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" cm="1" vm="151">
+        <f t="array" aca="1" ref="E25" ca="1">_FV(B25,"Population")</f>
+        <v>32901</v>
+      </c>
+      <c r="F25" cm="1" vm="152">
+        <f t="array" aca="1" ref="F25" ca="1">_FV(B25,"Latitude")</f>
+        <v>46.733333333333</v>
+      </c>
+      <c r="G25" cm="1" vm="153">
+        <f t="array" aca="1" ref="G25" ca="1">_FV(B25,"Longitude")</f>
+        <v>-117.16666666667</v>
+      </c>
+      <c r="H25" t="e" vm="154">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" cm="1" vm="155">
+        <f t="array" aca="1" ref="I25" ca="1">_FV(H25,"Population")</f>
+        <v>47973</v>
+      </c>
+      <c r="J25" s="3" t="e" cm="1" vm="156">
+        <f t="array" aca="1" ref="J25" ca="1">_FV(H25,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" cm="1" vm="151">
-        <f t="array" aca="1" ref="F25" ca="1">_FV(B25,"Population")</f>
-        <v>32901</v>
-      </c>
-      <c r="G25" cm="1" vm="152">
-        <f t="array" aca="1" ref="G25" ca="1">_FV(B25,"Latitude")</f>
-        <v>46.733333333333</v>
-      </c>
-      <c r="H25" cm="1" vm="153">
-        <f t="array" aca="1" ref="H25" ca="1">_FV(B25,"Longitude")</f>
-        <v>-117.16666666667</v>
-      </c>
-      <c r="I25" t="e" vm="154">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" cm="1" vm="155">
-        <f t="array" aca="1" ref="J25" ca="1">_FV(I25,"Population")</f>
-        <v>47973</v>
-      </c>
-      <c r="K25" s="3" t="e" cm="1" vm="156">
-        <f t="array" aca="1" ref="K25" ca="1">_FV(I25,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>82</v>
       </c>
       <c r="B26" t="e" vm="157">
         <v>#VALUE!</v>
       </c>
       <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" cm="1" vm="158">
+        <f t="array" aca="1" ref="E26" ca="1">_FV(B26,"Population")</f>
+        <v>18666</v>
+      </c>
+      <c r="F26" cm="1" vm="159">
+        <f t="array" aca="1" ref="F26" ca="1">_FV(B26,"Latitude")</f>
+        <v>46.997064000000002</v>
+      </c>
+      <c r="G26" cm="1" vm="160">
+        <f t="array" aca="1" ref="G26" ca="1">_FV(B26,"Longitude")</f>
+        <v>-120.545119</v>
+      </c>
+      <c r="H26" t="e" vm="161">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" cm="1" vm="162">
+        <f t="array" aca="1" ref="I26" ca="1">_FV(H26,"Population")</f>
+        <v>44337</v>
+      </c>
+      <c r="J26" s="3" t="e" cm="1" vm="163">
+        <f t="array" aca="1" ref="J26" ca="1">_FV(H26,"Largest city",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" cm="1" vm="158">
-        <f t="array" aca="1" ref="F26" ca="1">_FV(B26,"Population")</f>
-        <v>18666</v>
-      </c>
-      <c r="G26" cm="1" vm="159">
-        <f t="array" aca="1" ref="G26" ca="1">_FV(B26,"Latitude")</f>
-        <v>46.997064000000002</v>
-      </c>
-      <c r="H26" cm="1" vm="160">
-        <f t="array" aca="1" ref="H26" ca="1">_FV(B26,"Longitude")</f>
-        <v>-120.545119</v>
-      </c>
-      <c r="I26" t="e" vm="161">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" cm="1" vm="162">
-        <f t="array" aca="1" ref="J26" ca="1">_FV(I26,"Population")</f>
-        <v>44337</v>
-      </c>
-      <c r="K26" s="3" t="e" cm="1" vm="163">
-        <f t="array" aca="1" ref="K26" ca="1">_FV(I26,"Largest city",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>85</v>
       </c>
       <c r="B27" t="e" vm="164">
         <v>#VALUE!</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" cm="1" vm="165">
-        <f t="array" aca="1" ref="F27" ca="1">_FV(B27,"Population")</f>
+        <v>67</v>
+      </c>
+      <c r="E27" cm="1" vm="165">
+        <f t="array" aca="1" ref="E27" ca="1">_FV(B27,"Population")</f>
         <v>14158</v>
       </c>
-      <c r="G27" cm="1" vm="166">
-        <f t="array" aca="1" ref="G27" ca="1">_FV(B27,"Latitude")</f>
+      <c r="F27" cm="1" vm="166">
+        <f t="array" aca="1" ref="F27" ca="1">_FV(B27,"Latitude")</f>
         <v>47.421388888888998</v>
       </c>
-      <c r="H27" cm="1" vm="167">
-        <f t="array" aca="1" ref="H27" ca="1">_FV(B27,"Longitude")</f>
+      <c r="G27" cm="1" vm="167">
+        <f t="array" aca="1" ref="G27" ca="1">_FV(B27,"Longitude")</f>
         <v>-120.28805555556001</v>
       </c>
-      <c r="I27" t="e" vm="168">
+      <c r="H27" t="e" vm="168">
         <v>#VALUE!</v>
       </c>
-      <c r="J27" cm="1" vm="169">
-        <f t="array" aca="1" ref="J27" ca="1">_FV(I27,"Population")</f>
+      <c r="I27" cm="1" vm="169">
+        <f t="array" aca="1" ref="I27" ca="1">_FV(H27,"Population")</f>
         <v>42938</v>
       </c>
-      <c r="K27" s="3" t="e" cm="1" vm="170">
-        <f t="array" aca="1" ref="K27" ca="1">_FV(I27,"Largest city",TRUE)</f>
+      <c r="J27" s="3" t="e" cm="1" vm="170">
+        <f t="array" aca="1" ref="J27" ca="1">_FV(H27,"Largest city",TRUE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" t="e" vm="171">
         <v>#VALUE!</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" cm="1" vm="172">
-        <f t="array" aca="1" ref="F28" ca="1">_FV(B28,"Population")</f>
+        <v>86</v>
+      </c>
+      <c r="E28" cm="1" vm="172">
+        <f t="array" aca="1" ref="E28" ca="1">_FV(B28,"Population")</f>
         <v>4860</v>
       </c>
-      <c r="G28" cm="1" vm="173">
-        <f t="array" aca="1" ref="G28" ca="1">_FV(B28,"Latitude")</f>
+      <c r="F28" cm="1" vm="173">
+        <f t="array" aca="1" ref="F28" ca="1">_FV(B28,"Latitude")</f>
         <v>48.412500000000001</v>
       </c>
-      <c r="H28" cm="1" vm="174">
-        <f t="array" aca="1" ref="H28" ca="1">_FV(B28,"Longitude")</f>
+      <c r="G28" cm="1" vm="174">
+        <f t="array" aca="1" ref="G28" ca="1">_FV(B28,"Longitude")</f>
         <v>-119.53700000000001</v>
       </c>
-      <c r="I28" t="e" vm="175">
+      <c r="H28" t="e" vm="175">
         <v>#VALUE!</v>
       </c>
-      <c r="J28" cm="1" vm="176">
-        <f t="array" aca="1" ref="J28" ca="1">_FV(I28,"Population")</f>
+      <c r="I28" cm="1" vm="176">
+        <f t="array" aca="1" ref="I28" ca="1">_FV(H28,"Population")</f>
         <v>42104</v>
       </c>
-      <c r="K28" s="3" t="e" cm="1" vm="171">
-        <f t="array" aca="1" ref="K28" ca="1">_FV(I28,"Largest city",TRUE)</f>
+      <c r="J28" s="3" t="e" cm="1" vm="171">
+        <f t="array" aca="1" ref="J28" ca="1">_FV(H28,"Largest city",TRUE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="J30">
-        <f ca="1">SUM(J2:J28)</f>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <f ca="1">SUM(I2:I28)</f>
         <v>7464922</v>
       </c>
-      <c r="K30" s="3">
-        <f ca="1">J30/J31*100</f>
+      <c r="J30" s="3">
+        <f ca="1">I30/I31*100</f>
         <v>96.880593971848654</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="J31" s="5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I31" s="5">
         <v>7705281</v>
       </c>
     </row>
@@ -10649,49 +9649,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F594DE-ED4C-4B91-A00E-1A8348AAB4B7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
+      <c r="I1" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" vm="6">
         <v>2269675</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" vm="2">
         <v>737015</v>
@@ -10709,15 +9712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" vm="26">
         <v>539339</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" vm="22">
         <v>228989</v>
@@ -10735,15 +9738,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" vm="12">
         <v>921130</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" vm="8">
         <v>219346</v>
@@ -10761,15 +9764,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" vm="33">
         <v>503311</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" vm="29">
         <v>190915</v>
@@ -10787,15 +9790,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" vm="19">
         <v>827957</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" vm="15">
         <v>110629</v>
@@ -10813,15 +9816,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" vm="54">
         <v>256728</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" vm="50">
         <v>96968</v>
@@ -10833,15 +9836,15 @@
         <v>-120.50777777778001</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" vm="61">
         <v>226847</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" vm="57">
         <v>91482</v>
@@ -10853,15 +9856,15 @@
         <v>-122.478833333333</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" vm="89">
         <v>96749</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" vm="85">
         <v>77108</v>
@@ -10873,15 +9876,15 @@
         <v>-119.10861111110999</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" vm="68">
         <v>206873</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" vm="64">
         <v>60560</v>
@@ -10893,15 +9896,15 @@
         <v>-119.275194444444</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" vm="40">
         <v>294793</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" vm="36">
         <v>55605</v>
@@ -10913,15 +9916,15 @@
         <v>-122.89305555556</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" vm="47">
         <v>275611</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" vm="43">
         <v>43505</v>
@@ -10933,15 +9936,15 @@
         <v>-122.624694444444</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" vm="82">
         <v>110730</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" vm="78">
         <v>37818</v>
@@ -10953,15 +9956,15 @@
         <v>-122.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" vm="127">
         <v>79074</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" vm="123">
         <v>35508</v>
@@ -10973,15 +9976,15 @@
         <v>-120.32527777778</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" vm="148">
         <v>62584</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" vm="144">
         <v>34060</v>
@@ -10993,15 +9996,15 @@
         <v>-118.33027777778</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" vm="155">
         <v>47973</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" vm="151">
         <v>32901</v>
@@ -11013,15 +10016,15 @@
         <v>-117.16666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" vm="96">
         <v>99123</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" vm="92">
         <v>25146</v>
@@ -11033,15 +10036,15 @@
         <v>-119.288</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" vm="102">
         <v>86857</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" vm="98">
         <v>24622</v>
@@ -11053,15 +10056,15 @@
         <v>-122.65861111111001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" vm="120">
         <v>77155</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" vm="116">
         <v>19960</v>
@@ -11073,15 +10076,15 @@
         <v>-123.441</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" vm="162">
         <v>44337</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" vm="158">
         <v>18666</v>
@@ -11093,15 +10096,15 @@
         <v>-120.545119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" vm="109">
         <v>82149</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" vm="105">
         <v>18183</v>
@@ -11113,15 +10116,15 @@
         <v>-122.961</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" vm="169">
         <v>42938</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" vm="165">
         <v>14158</v>
@@ -11133,15 +10136,15 @@
         <v>-120.28805555556001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" vm="141">
         <v>65726</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" vm="137">
         <v>10371</v>
@@ -11153,15 +10156,15 @@
         <v>-123.10611111111</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" vm="75">
         <v>129523</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" vm="71">
         <v>9152</v>
@@ -11173,15 +10176,15 @@
         <v>-122.328</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" vm="134">
         <v>75636</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" vm="130">
         <v>8776</v>
@@ -11193,15 +10196,15 @@
         <v>-123.88555555556</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" vm="176">
         <v>42104</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" vm="172">
         <v>4860</v>
@@ -11216,6 +10219,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>